--- a/Reports/AreDifferent/decryption_coldWater/decryption_coldWater!.xlsx
+++ b/Reports/AreDifferent/decryption_coldWater/decryption_coldWater!.xlsx
@@ -774,8 +774,8 @@
   </sheetPr>
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1229,6 +1229,9 @@
       <c r="X12" s="32" t="s">
         <v>20</v>
       </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="P13" s="6" t="s">
